--- a/_data/tool_and_resource_list.xlsx
+++ b/_data/tool_and_resource_list.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="252">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -49,18 +49,24 @@
     <t xml:space="preserve">Specification for a standard API for plant data: plant material, plant phenotyping data</t>
   </si>
   <si>
+    <t xml:space="preserve">share, collect, re-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://copo-project.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portal for scientists to broker more easily rich metadata alongside data to public repos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">biotools:COPO</t>
+  </si>
+  <si>
     <t xml:space="preserve">share</t>
   </si>
   <si>
-    <t xml:space="preserve">COPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://copo-project.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portal for scientists to broker more easily rich metadata alongside data to public repos </t>
-  </si>
-  <si>
     <t xml:space="preserve">DAISY</t>
   </si>
   <si>
@@ -130,7 +136,7 @@
     <t xml:space="preserve">https://www.dmptuuli.fi/</t>
   </si>
   <si>
-    <t xml:space="preserve">Data management planning tool tailored for research in Finland.</t>
+    <t xml:space="preserve">Data management planning tool</t>
   </si>
   <si>
     <t xml:space="preserve">DS-Wizard</t>
@@ -142,6 +148,9 @@
     <t xml:space="preserve">Data Stewardship Wizard</t>
   </si>
   <si>
+    <t xml:space="preserve">biotools:Data_Stewardship_Wizard</t>
+  </si>
+  <si>
     <t xml:space="preserve">EasyDMP</t>
   </si>
   <si>
@@ -157,79 +166,619 @@
     <t xml:space="preserve">https://fairdomhub.org</t>
   </si>
   <si>
+    <t xml:space="preserve">Data, model and SOPs management for projects, from preliminary data to publication, support for running SBML models etc. (public SEEK instance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:nnvcr9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collect, process, analyse, share, preserve, storage, privacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fairsharing.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A curated, informative and educational resource on data and metadata standards, inter-related to databases and data policies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan, share, monitoring, metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versioning system, used for sharing code, as well as for sharing of small data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phyre2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sbg.bio.ic.ac.uk/~phyre2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein Homology/analogY Recognition Engine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biotools:phyre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">process, analyse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIAPPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.miappe.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Information About a Plant Phenotyping Experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:nd9ce9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard, re-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maDMP - Research Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://library.ust.hk/sc/machine-actionable-dmp/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine-Actionable Data Management Plan | Webinar (2016) on making a good data management plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Management Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://researcheracademy.elsevier.com/research-preparation/research-data-management/creating-good-research-data-management-plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine actionable DMPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iRODS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://irods.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Rule-Oriented Data System (iRODS) is open source data management software for a cancer genome analysis workflow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biotools:iRODS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://seek4science.org/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Data, model and SOPs management for projects, from preliminary data to publication, support for running SBML models etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">collect, process, analyse, share, preserve, storage, privacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAIRsharing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fairsharing.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A curated, informative and educational resource on data and metadata standards, inter-related to databases and data policies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan, share, monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versioning system, used for sharing code, as well as for sharing of small data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phyre2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.sbg.bio.ic.ac.uk/~phyre2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein Homology/analogY Recognition Engine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biotools:phyre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">process, analyse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIAPPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.miappe.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Information About a Plant Phenotyping Experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fairsharing:nd9ce9</t>
+    <t xml:space="preserve">biotools:seek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Genomic Standards Consortium (GSC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gensc.org/mixs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Information about any (x) Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:9aa0zp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">human data, privacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrayExpress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ebi.ac.uk/arrayexpress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrayExpress is a database of functional genomics experiments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:6k0kwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share, re-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioModels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/biomodels-main/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioModels is a repository of computational models of biological processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:paz6mh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioSamples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/biosamples/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BioSamples database aggregates sample information for samples for which data exist in one of the ELIXIR's assay databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:ewjdq6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioStudies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/biostudies/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BioStudies database holds descriptions of biological studies, links to data from these studies in other databases at EMBL-EBI or outside, as well as data that do not fit in the structured ELIXIR archives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:mtjvme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/pdbe/emdb/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Electron Microscopy Data Bank (EMDB) is a public repository for electron microscopy density maps of macromolecular complexes and subcellular structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:651n9j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/eva/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The European Variation Archive is an open-access archive that accepts submission of, and provides access to, all types of genetic variation data from all species.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:6824pv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ebi.ac.uk/intact/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntAct provides a freely available, open source database system and analysis tools for protein interaction data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:d05nwx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ebi.ac.uk/metabolights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetaboLights is a database for metabolomics studies, their raw experimental data and associated metadata. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:kkdpxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ebi.ac.uk/pride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PRIDE PRoteomics IDEntifications database is a centralized, standards compliant, public data repository that provides protein and peptide identifications together with supporting evidence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:e1byny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ebi.ac.uk/pdbe/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Protein Data Bank in Europe (PDBe) is the European resource for the collection, organisation and dissemination of data on biological macromolecular structures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ega-archive.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The European Genome-phenome Archive (EGA) allows you to deposit and explore datasets from molecular studies on human subjects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:mya1ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share, re-use, human data, privacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ebi.ac.uk/ena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The European Nucleotide Archive (ENA) servs both as the database of record for the output of the world's sequencing activity and as a platform for the management, sharing and publication of sequence data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:dj8nt8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISA-tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://isa-tools.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open source framework and tools helping to manage a diverse set of life science, environmental and biomedical experiments using the Investigation Study Assay (ISA) standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:53gp75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bioversityinternational.org/e-library/publications/detail/faobioversity-multi-crop-passport-descriptors-v21-mcpd-v21/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Multi-Crop Passport Descriptor is the metadata standard for plant genetic resources maintained ex situ by genbanks</t>
   </si>
   <si>
     <t xml:space="preserve">standard</t>
   </si>
   <si>
-    <t xml:space="preserve">maDMP - Research Bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://library.ust.hk/sc/machine-actionable-dmp/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine-Actionable Data Management Plan | Webinar (2016) on making a good data management plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Management Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://researcheracademy.elsevier.com/research-preparation/research-data-management/creating-good-research-data-management-plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine actionable DMPs</t>
+    <t xml:space="preserve">FAIDARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://urgi.versailles.inra.fr/faidare/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIDARE is a tool allowing to search data across dinstinct databases that implemented BrAPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biotools:faidare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crop Ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cropontology.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Crop Ontology compiles concepts to curate phenotyping assays on crop plants, including anatomy, structure and phenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:bsg-s002695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATAVERSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dataverse.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open source research data respository software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collect, share, re-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONTOMATON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ISA-tools/OntoMaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OntoMaton facilitates ontology search and tagging functionalities within Google Spreadsheets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADA-M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ga4gh/ADA-M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Automatable Discovery and Access Matrix (ADA-M) provides a standardized way to unambiguously represent the conditions related to data discovery and access.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beacon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://beacon-project.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Beacon protocol defines an open standard for genomics data discovery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">human data, share, re-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Use Ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/EBISPOT/DUO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUO allows to semantically tag datasets with restriction about their usage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:5dnjs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informed Consent Ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.obolibrary.org/obo/ICO.owl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Informed Consent Ontology (ICO) is an ontology for the informed consent and informed consent process in the medical field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairsharing:b9znd5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy Impact Assessment Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://privaon.com/services/privacy-impact-assessment-tool/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy Impact Assessment Tool is a software, that allows you to carry out Privacy Impact Assessment (PIA) independently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tryggve ELSI Checklist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://neic.no/tryggve/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBMRI-ERIC’s ELSI Knowledge Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bbmri-eric.eu/elsi/knowledge-base/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ELSI Knowledge Base is an open-access resource platform that aims at providing practical know-how for responsible research.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAWID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dawid.elixir-luxembourg.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Data Agreement Wizard is a tool developed by ELIXIR-Luxembourg to facilitate data sharing agreements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUPID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eupid.eu/#/concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUPID provides a method for identity management, pseudonymisation and record linkage to bridge the gap between multiple contexts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD-Connect Genome Phenome Analysis Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rd-connect.eu/what-we-do/omics/gpap/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The RD-Connect GPAP is an online tool for diagnosis and gene discovery in rare disease research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">human data, privacy, share, re-use, analyse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA4GH data security toolkit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ga4gh.org/genomic-data-toolkit/data-security-toolkit/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principled and practical framework for the responsible sharing of genomic and health-related data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">human data, privacy, share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA4GH regular and ethical toolkit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ga4gh.org/genomic-data-toolkit/regulatory-ethics-toolkit/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbGAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/gap/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The database of Genotypes and Phenotypes (dbGaP) archives and distributes data from studies investigating the interaction of genotype and phenotype in Humans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">human data, privacy, share, re-use, storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRENDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.brenda-enzymes.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database of enzyme and enzyme-ligand information, across all taxonomic groups, manually extracted from primary literature and extended by text mining procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDA Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rd-alliance.github.io/metadata-directory/standards/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directory of standard metadata, divided into different research areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan, collect, process, analyse, share, preserve, metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.cathdb.info/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hierarchical domain classification of protein structures in the Protein Data Bank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChEBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/chebi/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dictionary of molecular entities focused on ‘small’ chemical compounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChEMBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/chembl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database of bioactive drug-like small molecules, it contains 2-D structures, calculated properties and abstracted bioactivities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensembl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ensembl.org/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome browser for vertebrate genomes that supports research in comparative genomics, evolution, sequence variation and transcriptional regulation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensembl Genomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ensemblgenomes.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparative analysis, data mining and visualisation for the genomes of non-vertebrate species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe PMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://europepmc.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe PMC is a repository, providing access to worldwide life sciences articles, books, patents and clinical guidelines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Protein Atlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.proteinatlas.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Human Protein Atlas contains information for a large majority of all human protein-coding genes regarding the expression and localization of the corresponding proteins based on both RNA and protein data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Curation Centre Metadata list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dcc.ac.uk/guidance/standards/metadata/list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of metadata standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mint.bio.uniroma2.it/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINT, the Molecular INTeraction database, focuses on experimentally verified protein-protein interactions mined from the scientific literature by expert curators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InterPro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebi.ac.uk/interpro/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional analysis of protein sequences by classifying them into families and predicting the presence of domains and important sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orphadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.orphadata.org/cgi-bin/index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Orphadata platform provides the scientific community with comprehensive, high-quality datasets related to rare diseases and orphan drugs, in a reusable and computable format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.arb-silva.de/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVA provides comprehensive, quality checked and regularly updated datasets of aligned small (16S/18S, SSU) and large subunit (23S/28S, LSU) ribosomal RNA (rRNA) sequences for all three domains of life (Bacteria, Archaea and Eukarya).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://string-db.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known and predicted protein-protein interactions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniProt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniprot.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprehensive resource for protein sequence and annotation data</t>
   </si>
 </sst>
 </file>
@@ -324,7 +873,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -333,7 +882,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -419,22 +976,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="45.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="45.81"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,262 +1008,1052 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="B15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="D16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="E16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="E17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="B18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>20</v>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -730,6 +2077,56 @@
     <hyperlink ref="B17" r:id="rId16" display="https://www.miappe.org/"/>
     <hyperlink ref="B18" r:id="rId17" display="https://library.ust.hk/sc/machine-actionable-dmp/"/>
     <hyperlink ref="B19" r:id="rId18" display="https://researcheracademy.elsevier.com/research-preparation/research-data-management/creating-good-research-data-management-plan"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://irods.org/"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://seek4science.org/"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://gensc.org/mixs/"/>
+    <hyperlink ref="B23" r:id="rId22" display="http://www.ebi.ac.uk/arrayexpress"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://www.ebi.ac.uk/biomodels-main/"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://www.ebi.ac.uk/biosamples/"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://www.ebi.ac.uk/biostudies/"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://www.ebi.ac.uk/pdbe/emdb/"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://www.ebi.ac.uk/eva/"/>
+    <hyperlink ref="B29" r:id="rId28" display="http://www.ebi.ac.uk/intact/"/>
+    <hyperlink ref="B30" r:id="rId29" display="http://www.ebi.ac.uk/metabolights"/>
+    <hyperlink ref="B31" r:id="rId30" display="http://www.ebi.ac.uk/pride"/>
+    <hyperlink ref="B32" r:id="rId31" display="http://www.ebi.ac.uk/pdbe/"/>
+    <hyperlink ref="B33" r:id="rId32" display="https://ega-archive.org/"/>
+    <hyperlink ref="B34" r:id="rId33" display="http://www.ebi.ac.uk/ena"/>
+    <hyperlink ref="B35" r:id="rId34" display="https://isa-tools.org/"/>
+    <hyperlink ref="B36" r:id="rId35" display="https://www.bioversityinternational.org/e-library/publications/detail/faobioversity-multi-crop-passport-descriptors-v21-mcpd-v21/"/>
+    <hyperlink ref="B37" r:id="rId36" display="https://urgi.versailles.inra.fr/faidare/"/>
+    <hyperlink ref="B38" r:id="rId37" display="https://www.cropontology.org"/>
+    <hyperlink ref="B39" r:id="rId38" display="https://dataverse.org/"/>
+    <hyperlink ref="B40" r:id="rId39" display="https://github.com/ISA-tools/OntoMaton"/>
+    <hyperlink ref="B41" r:id="rId40" display="https://github.com/ga4gh/ADA-M"/>
+    <hyperlink ref="B42" r:id="rId41" display="https://beacon-project.io/"/>
+    <hyperlink ref="B43" r:id="rId42" display="https://github.com/EBISPOT/DUO"/>
+    <hyperlink ref="B44" r:id="rId43" display="http://purl.obolibrary.org/obo/ICO.owl"/>
+    <hyperlink ref="B45" r:id="rId44" display="https://privaon.com/services/privacy-impact-assessment-tool/"/>
+    <hyperlink ref="B46" r:id="rId45" display="https://neic.no/tryggve/"/>
+    <hyperlink ref="B47" r:id="rId46" display="https://www.bbmri-eric.eu/elsi/knowledge-base/"/>
+    <hyperlink ref="B48" r:id="rId47" display="https://dawid.elixir-luxembourg.org/"/>
+    <hyperlink ref="B49" r:id="rId48" location="/concept" display="https://eupid.eu/#/concept"/>
+    <hyperlink ref="B50" r:id="rId49" display="https://rd-connect.eu/what-we-do/omics/gpap/"/>
+    <hyperlink ref="B51" r:id="rId50" display="https://www.ga4gh.org/genomic-data-toolkit/data-security-toolkit/"/>
+    <hyperlink ref="B52" r:id="rId51" display="https://www.ga4gh.org/genomic-data-toolkit/regulatory-ethics-toolkit/"/>
+    <hyperlink ref="B53" r:id="rId52" display="https://www.ncbi.nlm.nih.gov/gap/"/>
+    <hyperlink ref="B54" r:id="rId53" display="https://www.brenda-enzymes.org/"/>
+    <hyperlink ref="B55" r:id="rId54" display="https://rd-alliance.github.io/metadata-directory/standards/"/>
+    <hyperlink ref="B56" r:id="rId55" display="http://www.cathdb.info/"/>
+    <hyperlink ref="B57" r:id="rId56" display="https://www.ebi.ac.uk/chebi/"/>
+    <hyperlink ref="B58" r:id="rId57" display="https://www.ebi.ac.uk/chembl/"/>
+    <hyperlink ref="B59" r:id="rId58" display="http://www.ensembl.org/index.html"/>
+    <hyperlink ref="B60" r:id="rId59" display="http://ensemblgenomes.org/"/>
+    <hyperlink ref="B61" r:id="rId60" display="https://europepmc.org/"/>
+    <hyperlink ref="B62" r:id="rId61" display="http://www.proteinatlas.org/"/>
+    <hyperlink ref="B63" r:id="rId62" display="https://www.dcc.ac.uk/guidance/standards/metadata/list"/>
+    <hyperlink ref="B64" r:id="rId63" display="https://mint.bio.uniroma2.it/"/>
+    <hyperlink ref="B65" r:id="rId64" display="https://www.ebi.ac.uk/interpro/"/>
+    <hyperlink ref="B66" r:id="rId65" display="http://www.orphadata.org/cgi-bin/index.php"/>
+    <hyperlink ref="B67" r:id="rId66" display="https://www.arb-silva.de/"/>
+    <hyperlink ref="B68" r:id="rId67" display="https://string-db.org/"/>
+    <hyperlink ref="B69" r:id="rId68" display="https://www.uniprot.org/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -738,6 +2135,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId69"/>
 </worksheet>
 </file>